--- a/src/test/resources/ExcelTest.xlsx
+++ b/src/test/resources/ExcelTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\testdata\pageobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37DFD6-224A-4F90-9BF1-AF90DFA193C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB4195-94CC-4BAC-9027-34FFAB7F241F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home_1</t>
+    <t>home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/ExcelTest.xlsx
+++ b/src/test/resources/ExcelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB4195-94CC-4BAC-9027-34FFAB7F241F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794E406-7570-43BA-9256-4A57598A1AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home</t>
+    <t>home_11</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/ExcelTest.xlsx
+++ b/src/test/resources/ExcelTest.xlsx
@@ -1,45 +1,50 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794E406-7570-43BA-9256-4A57598A1AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="SecurityPage" sheetId="2" r:id="rId2"/>
-    <sheet name="NameChange" sheetId="3" r:id="rId3"/>
-    <sheet name="AccountPage" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchPage" sheetId="5" r:id="rId5"/>
-    <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
-    <sheet name="OrderCartPage" sheetId="7" r:id="rId7"/>
-    <sheet name="LoginPage" sheetId="8" r:id="rId8"/>
-    <sheet name="CheckOutPage" sheetId="9" r:id="rId9"/>
-    <sheet name="Results" sheetId="10" r:id="rId10"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>10</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="10" baseType="lpstr">
+      <vt:lpstr>Amazon</vt:lpstr>
+      <vt:lpstr>SecurityPage</vt:lpstr>
+      <vt:lpstr>NameChange</vt:lpstr>
+      <vt:lpstr>AccountPage</vt:lpstr>
+      <vt:lpstr>SearchPage</vt:lpstr>
+      <vt:lpstr>ProductPage</vt:lpstr>
+      <vt:lpstr>OrderCartPage</vt:lpstr>
+      <vt:lpstr>LoginPage</vt:lpstr>
+      <vt:lpstr>CheckOutPage</vt:lpstr>
+      <vt:lpstr>Results</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Macharla, Pradeep</dc:creator>
+  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2014-12-07T20:26:11Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-18T12:41:40Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>element_type</t>
@@ -518,7 +523,7 @@
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -568,7 +573,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -887,7 +892,47 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794E406-7570-43BA-9256-4A57598A1AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
+    <sheet name="SecurityPage" sheetId="2" r:id="rId2"/>
+    <sheet name="NameChange" sheetId="3" r:id="rId3"/>
+    <sheet name="AccountPage" sheetId="4" r:id="rId4"/>
+    <sheet name="SearchPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
+    <sheet name="OrderCartPage" sheetId="7" r:id="rId7"/>
+    <sheet name="LoginPage" sheetId="8" r:id="rId8"/>
+    <sheet name="CheckOutPage" sheetId="9" r:id="rId9"/>
+    <sheet name="Results" sheetId="10" r:id="rId10"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1054,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1117,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1201,7 +1246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1277,7 +1322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1337,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -1468,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1701,7 +1746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -1821,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -1960,7 +2005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>

--- a/src/test/resources/ExcelTest.xlsx
+++ b/src/test/resources/ExcelTest.xlsx
@@ -40,7 +40,7 @@
   <dc:creator>Macharla, Pradeep</dc:creator>
   <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
   <dcterms:created xsi:type="dcterms:W3CDTF">2014-12-07T20:26:11Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-18T12:41:40Z</dcterms:modified>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-18T13:50:43Z</dcterms:modified>
 </cp:coreProperties>
 </file>
 
@@ -518,7 +518,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home_11</t>
+    <t>home</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794E406-7570-43BA-9256-4A57598A1AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB18B1-E140-44B8-8466-F756747AC1AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/ExcelTest.xlsx
+++ b/src/test/resources/ExcelTest.xlsx
@@ -1,50 +1,45 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Worksheets</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>10</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="10" baseType="lpstr">
-      <vt:lpstr>Amazon</vt:lpstr>
-      <vt:lpstr>SecurityPage</vt:lpstr>
-      <vt:lpstr>NameChange</vt:lpstr>
-      <vt:lpstr>AccountPage</vt:lpstr>
-      <vt:lpstr>SearchPage</vt:lpstr>
-      <vt:lpstr>ProductPage</vt:lpstr>
-      <vt:lpstr>OrderCartPage</vt:lpstr>
-      <vt:lpstr>LoginPage</vt:lpstr>
-      <vt:lpstr>CheckOutPage</vt:lpstr>
-      <vt:lpstr>Results</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C1C41-05F0-43D8-99BD-02DD2737901B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
+    <sheet name="SecurityPage" sheetId="2" r:id="rId2"/>
+    <sheet name="NameChange" sheetId="3" r:id="rId3"/>
+    <sheet name="AccountPage" sheetId="4" r:id="rId4"/>
+    <sheet name="SearchPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
+    <sheet name="OrderCartPage" sheetId="7" r:id="rId7"/>
+    <sheet name="LoginPage" sheetId="8" r:id="rId8"/>
+    <sheet name="CheckOutPage" sheetId="9" r:id="rId9"/>
+    <sheet name="Results" sheetId="10" r:id="rId10"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Macharla, Pradeep</dc:creator>
-  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2014-12-07T20:26:11Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-18T13:50:43Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>element_type</t>
@@ -523,7 +518,7 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -573,7 +568,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -892,47 +887,7 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB18B1-E140-44B8-8466-F756747AC1AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="SecurityPage" sheetId="2" r:id="rId2"/>
-    <sheet name="NameChange" sheetId="3" r:id="rId3"/>
-    <sheet name="AccountPage" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchPage" sheetId="5" r:id="rId5"/>
-    <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
-    <sheet name="OrderCartPage" sheetId="7" r:id="rId7"/>
-    <sheet name="LoginPage" sheetId="8" r:id="rId8"/>
-    <sheet name="CheckOutPage" sheetId="9" r:id="rId9"/>
-    <sheet name="Results" sheetId="10" r:id="rId10"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1099,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1162,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1246,7 +1201,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1322,7 +1277,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1382,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -1513,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1746,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -1866,7 +1821,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -2005,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
